--- a/excel/template_raport.xlsx
+++ b/excel/template_raport.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iseng\sekolahan\backend-services\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B449F8-D1FB-4BFA-966E-1D3ECD9DF1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C32C58-664F-4A44-8893-26D20113F755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EC0BEDA-77DC-4C78-8D89-459B606F303A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6EC0BEDA-77DC-4C78-8D89-459B606F303A}"/>
   </bookViews>
   <sheets>
     <sheet name="Raport" sheetId="1" r:id="rId1"/>
+    <sheet name="option" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
   <si>
     <t>III.  LAPORAN CAPAIAN KOMPETENSI PESERTA DIDIK</t>
   </si>
@@ -195,6 +196,33 @@
   <si>
     <t>Bhs. Asing Lain (……...….)</t>
   </si>
+  <si>
+    <t>kelompokA</t>
+  </si>
+  <si>
+    <t>kelompokB</t>
+  </si>
+  <si>
+    <t>kelompokC</t>
+  </si>
+  <si>
+    <t>kelompokCLintas</t>
+  </si>
+  <si>
+    <t>Pendidikan Agama Islam</t>
+  </si>
+  <si>
+    <t>PPKN</t>
+  </si>
+  <si>
+    <t>Penjaskes</t>
+  </si>
+  <si>
+    <t>Prakarya</t>
+  </si>
+  <si>
+    <t>Bahasa Asing Lain</t>
+  </si>
 </sst>
 </file>
 
@@ -241,12 +269,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="49">
@@ -847,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -978,50 +1012,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1041,45 +1081,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1184,19 +1220,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1501,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649BDABF-7A5B-4E89-AA5D-A04370C03972}">
   <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1518,42 +1554,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
@@ -1618,17 +1654,17 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="O3" s="91" t="s">
+      <c r="O3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="53"/>
+      <c r="P3" s="46"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="V3" s="91" t="s">
+      <c r="V3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="53"/>
+      <c r="W3" s="46"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
@@ -1692,7 +1728,7 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5"/>
@@ -1703,35 +1739,35 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="61"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="60" t="s">
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AG5" s="61"/>
-      <c r="AH5" s="63"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="55"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -1740,7 +1776,7 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1"/>
       <c r="D6" s="9" t="s">
@@ -1749,35 +1785,35 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="93"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
       <c r="K6" s="57"/>
       <c r="L6" s="57"/>
       <c r="M6" s="58"/>
-      <c r="N6" s="56"/>
+      <c r="N6" s="59"/>
       <c r="O6" s="57"/>
       <c r="P6" s="57"/>
       <c r="Q6" s="57"/>
       <c r="R6" s="57"/>
       <c r="S6" s="58"/>
-      <c r="T6" s="56"/>
+      <c r="T6" s="59"/>
       <c r="U6" s="57"/>
       <c r="V6" s="57"/>
       <c r="W6" s="57"/>
       <c r="X6" s="57"/>
       <c r="Y6" s="58"/>
-      <c r="Z6" s="56"/>
+      <c r="Z6" s="59"/>
       <c r="AA6" s="57"/>
       <c r="AB6" s="57"/>
       <c r="AC6" s="57"/>
       <c r="AD6" s="57"/>
       <c r="AE6" s="58"/>
-      <c r="AF6" s="88" t="s">
+      <c r="AF6" s="60" t="s">
         <v>9</v>
       </c>
       <c r="AG6" s="57"/>
-      <c r="AH6" s="59"/>
+      <c r="AH6" s="61"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1786,7 +1822,7 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1795,51 +1831,51 @@
         <v>10</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="89">
+      <c r="H7" s="62">
         <v>1</v>
       </c>
       <c r="I7" s="57"/>
       <c r="J7" s="58"/>
-      <c r="K7" s="87">
+      <c r="K7" s="63">
         <v>2</v>
       </c>
       <c r="L7" s="57"/>
       <c r="M7" s="58"/>
-      <c r="N7" s="87">
+      <c r="N7" s="63">
         <v>1</v>
       </c>
       <c r="O7" s="57"/>
       <c r="P7" s="58"/>
-      <c r="Q7" s="87">
+      <c r="Q7" s="63">
         <v>2</v>
       </c>
       <c r="R7" s="57"/>
       <c r="S7" s="58"/>
-      <c r="T7" s="87">
+      <c r="T7" s="63">
         <v>1</v>
       </c>
       <c r="U7" s="57"/>
       <c r="V7" s="58"/>
-      <c r="W7" s="87">
+      <c r="W7" s="63">
         <v>2</v>
       </c>
       <c r="X7" s="57"/>
       <c r="Y7" s="58"/>
-      <c r="Z7" s="87">
+      <c r="Z7" s="63">
         <v>1</v>
       </c>
       <c r="AA7" s="57"/>
       <c r="AB7" s="58"/>
-      <c r="AC7" s="87">
+      <c r="AC7" s="63">
         <v>2</v>
       </c>
       <c r="AD7" s="57"/>
       <c r="AE7" s="58"/>
-      <c r="AF7" s="56" t="s">
+      <c r="AF7" s="59" t="s">
         <v>11</v>
       </c>
       <c r="AG7" s="57"/>
-      <c r="AH7" s="59"/>
+      <c r="AH7" s="61"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1848,7 +1884,7 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1857,85 +1893,85 @@
       <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="83" t="s">
+      <c r="J8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="83" t="s">
+      <c r="K8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="83" t="s">
+      <c r="M8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="83" t="s">
+      <c r="N8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="83" t="s">
+      <c r="O8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="83" t="s">
+      <c r="P8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="83" t="s">
+      <c r="Q8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="83" t="s">
+      <c r="R8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="S8" s="83" t="s">
+      <c r="S8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="83" t="s">
+      <c r="T8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="83" t="s">
+      <c r="U8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="83" t="s">
+      <c r="V8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="83" t="s">
+      <c r="W8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="83" t="s">
+      <c r="X8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="83" t="s">
+      <c r="Y8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Z8" s="83" t="s">
+      <c r="Z8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AA8" s="83" t="s">
+      <c r="AA8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="83" t="s">
+      <c r="AB8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" s="83" t="s">
+      <c r="AC8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="83" t="s">
+      <c r="AD8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AE8" s="83" t="s">
+      <c r="AE8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="83" t="s">
+      <c r="AF8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="AG8" s="83" t="s">
+      <c r="AG8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AH8" s="84" t="s">
+      <c r="AH8" s="83" t="s">
         <v>15</v>
       </c>
       <c r="AI8" s="1"/>
@@ -1946,40 +1982,40 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="80"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="80"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="80"/>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="80"/>
-      <c r="AH9" s="85"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="65"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="65"/>
+      <c r="AG9" s="65"/>
+      <c r="AH9" s="84"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -1988,7 +2024,7 @@
       <c r="AN9" s="1"/>
     </row>
     <row r="10" spans="1:40" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
@@ -1997,33 +2033,33 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="86"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="85"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -2035,58 +2071,58 @@
       <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="69">
+      <c r="B11" s="67">
         <v>2</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="69">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="67">
         <v>3</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="69">
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="67">
         <v>4</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="69">
+      <c r="L11" s="68"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="67">
         <v>5</v>
       </c>
-      <c r="O11" s="51"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="69">
+      <c r="O11" s="68"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="67">
         <v>6</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="69">
+      <c r="R11" s="68"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="67">
         <v>7</v>
       </c>
-      <c r="U11" s="51"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="69">
+      <c r="U11" s="68"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="67">
         <v>8</v>
       </c>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="69">
+      <c r="X11" s="68"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="67">
         <v>9</v>
       </c>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="69">
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="67">
         <v>10</v>
       </c>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="69">
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="67">
         <v>11</v>
       </c>
-      <c r="AG11" s="51"/>
+      <c r="AG11" s="68"/>
       <c r="AH11" s="70"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -2385,7 +2421,7 @@
       <c r="B18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="31" t="s">
         <v>25</v>
       </c>
@@ -2431,8 +2467,8 @@
         <f>A18+1</f>
         <v>2</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="77"/>
       <c r="D19" s="21" t="s">
         <v>26</v>
       </c>
@@ -2478,8 +2514,8 @@
         <f>A19+1</f>
         <v>3</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="65"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
       <c r="D20" s="26" t="s">
         <v>27</v>
       </c>
@@ -2527,7 +2563,7 @@
       <c r="B21" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="81" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -2575,8 +2611,8 @@
         <f t="shared" ref="A22:A40" si="0">A21+1</f>
         <v>2</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="80"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="21" t="s">
         <v>30</v>
       </c>
@@ -2622,8 +2658,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="80"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="21" t="s">
         <v>31</v>
       </c>
@@ -2669,8 +2705,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="80"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="21" t="s">
         <v>32</v>
       </c>
@@ -2716,8 +2752,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="21" t="s">
         <v>33</v>
       </c>
@@ -2763,8 +2799,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="21" t="s">
         <v>34</v>
       </c>
@@ -2810,8 +2846,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="80"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="21" t="s">
         <v>35</v>
       </c>
@@ -2857,8 +2893,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="35" t="s">
         <v>36</v>
       </c>
@@ -2904,7 +2940,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B29" s="77"/>
+      <c r="B29" s="78"/>
       <c r="C29" s="82" t="s">
         <v>37</v>
       </c>
@@ -2953,8 +2989,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="80"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="65"/>
       <c r="D30" s="21" t="s">
         <v>30</v>
       </c>
@@ -3000,8 +3036,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="80"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="21" t="s">
         <v>31</v>
       </c>
@@ -3047,8 +3083,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B32" s="77"/>
-      <c r="C32" s="80"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="21" t="s">
         <v>32</v>
       </c>
@@ -3094,8 +3130,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="80"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="21" t="s">
         <v>33</v>
       </c>
@@ -3141,8 +3177,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="21" t="s">
         <v>34</v>
       </c>
@@ -3188,8 +3224,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="80"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="21" t="s">
         <v>35</v>
       </c>
@@ -3235,8 +3271,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="80"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="21" t="s">
         <v>36</v>
       </c>
@@ -3282,8 +3318,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="80"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="21" t="s">
         <v>38</v>
       </c>
@@ -3329,8 +3365,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="80"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="21" t="s">
         <v>39</v>
       </c>
@@ -3376,8 +3412,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="80"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="21" t="s">
         <v>52</v>
       </c>
@@ -3423,8 +3459,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="81"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="26" t="s">
         <v>40</v>
       </c>
@@ -3466,15 +3502,15 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="65"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
@@ -3510,62 +3546,62 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="38"/>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="60" t="s">
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="61"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="60" t="s">
+      <c r="I42" s="52"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="L42" s="61"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="60" t="s">
+      <c r="L42" s="52"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="O42" s="61"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="60" t="s">
+      <c r="O42" s="52"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="R42" s="61"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="60" t="s">
+      <c r="R42" s="52"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="U42" s="61"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="60" t="s">
+      <c r="U42" s="52"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="60" t="s">
+      <c r="X42" s="52"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AA42" s="61"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="60" t="s">
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="62"/>
-      <c r="AF42" s="60" t="s">
+      <c r="AD42" s="52"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AG42" s="61"/>
-      <c r="AH42" s="63"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="55"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -3574,60 +3610,60 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="52"/>
-      <c r="B43" s="68"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="77"/>
       <c r="C43" s="39"/>
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="59" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="57"/>
       <c r="F43" s="57"/>
       <c r="G43" s="58"/>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="59" t="s">
         <v>44</v>
       </c>
       <c r="I43" s="57"/>
       <c r="J43" s="58"/>
-      <c r="K43" s="56" t="s">
+      <c r="K43" s="59" t="s">
         <v>44</v>
       </c>
       <c r="L43" s="57"/>
       <c r="M43" s="58"/>
-      <c r="N43" s="56" t="s">
+      <c r="N43" s="59" t="s">
         <v>44</v>
       </c>
       <c r="O43" s="57"/>
       <c r="P43" s="58"/>
-      <c r="Q43" s="56" t="s">
+      <c r="Q43" s="59" t="s">
         <v>44</v>
       </c>
       <c r="R43" s="57"/>
       <c r="S43" s="58"/>
-      <c r="T43" s="56" t="s">
+      <c r="T43" s="59" t="s">
         <v>44</v>
       </c>
       <c r="U43" s="57"/>
       <c r="V43" s="58"/>
-      <c r="W43" s="56" t="s">
+      <c r="W43" s="59" t="s">
         <v>44</v>
       </c>
       <c r="X43" s="57"/>
       <c r="Y43" s="58"/>
-      <c r="Z43" s="56" t="s">
+      <c r="Z43" s="59" t="s">
         <v>44</v>
       </c>
       <c r="AA43" s="57"/>
       <c r="AB43" s="58"/>
-      <c r="AC43" s="56" t="s">
+      <c r="AC43" s="59" t="s">
         <v>44</v>
       </c>
       <c r="AD43" s="57"/>
       <c r="AE43" s="58"/>
-      <c r="AF43" s="56" t="s">
+      <c r="AF43" s="59" t="s">
         <v>44</v>
       </c>
       <c r="AG43" s="57"/>
-      <c r="AH43" s="59"/>
+      <c r="AH43" s="61"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -3636,60 +3672,60 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="54"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="46" t="s">
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="47"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="46" t="s">
+      <c r="I44" s="91"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="47"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="46" t="s">
+      <c r="L44" s="91"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="47"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="46" t="s">
+      <c r="O44" s="91"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="R44" s="47"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="46" t="s">
+      <c r="R44" s="91"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="U44" s="47"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="46" t="s">
+      <c r="U44" s="91"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="46" t="s">
+      <c r="X44" s="91"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="46" t="s">
+      <c r="AA44" s="91"/>
+      <c r="AB44" s="92"/>
+      <c r="AC44" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="48"/>
-      <c r="AF44" s="46" t="s">
+      <c r="AD44" s="91"/>
+      <c r="AE44" s="92"/>
+      <c r="AF44" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="AG44" s="47"/>
-      <c r="AH44" s="49"/>
+      <c r="AG44" s="91"/>
+      <c r="AH44" s="93"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -3698,44 +3734,44 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="55" t="s">
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="55" t="s">
+      <c r="N45" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="55" t="s">
+      <c r="T45" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="U45" s="51"/>
-      <c r="V45" s="51"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="7"/>
-      <c r="Z45" s="55" t="s">
+      <c r="Z45" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="AA45" s="51"/>
-      <c r="AB45" s="51"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="68"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="7"/>
@@ -3750,13 +3786,13 @@
       <c r="AN45" s="1"/>
     </row>
     <row r="46" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
       <c r="H46" s="8"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -3800,42 +3836,42 @@
       <c r="AN46" s="1"/>
     </row>
     <row r="47" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="54"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="44" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="13"/>
-      <c r="N47" s="44" t="s">
+      <c r="N47" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="44" t="s">
+      <c r="T47" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="87"/>
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="13"/>
-      <c r="Z47" s="44" t="s">
+      <c r="Z47" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
+      <c r="AA47" s="87"/>
+      <c r="AB47" s="87"/>
       <c r="AC47" s="12"/>
       <c r="AD47" s="12"/>
       <c r="AE47" s="13"/>
@@ -8781,6 +8817,88 @@
     <row r="1000" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="A45:G47"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:B44"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="B12:C17"/>
+    <mergeCell ref="B18:C20"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="C29:C40"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AA8:AA10"/>
+    <mergeCell ref="AB8:AB10"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="R8:R10"/>
+    <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T8:T10"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="X8:X10"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="V3:W3"/>
@@ -8805,90 +8923,154 @@
     <mergeCell ref="AC7:AE7"/>
     <mergeCell ref="AF7:AH7"/>
     <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Z8:Z10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="R8:R10"/>
-    <mergeCell ref="S8:S10"/>
-    <mergeCell ref="T8:T10"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="B12:C17"/>
-    <mergeCell ref="B18:C20"/>
-    <mergeCell ref="B21:B40"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="C29:C40"/>
-    <mergeCell ref="AG8:AG10"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AA8:AA10"/>
-    <mergeCell ref="AB8:AB10"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:B44"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="A45:G47"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB672205-8976-4FB9-8173-17311A007001}">
+  <dimension ref="A2:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/template_raport.xlsx
+++ b/excel/template_raport.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iseng\sekolahan\backend-services\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C32C58-664F-4A44-8893-26D20113F755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EFC143-9109-4281-A596-C3A9BE23D177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6EC0BEDA-77DC-4C78-8D89-459B606F303A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EC0BEDA-77DC-4C78-8D89-459B606F303A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Raport" sheetId="1" r:id="rId1"/>
+    <sheet name="Raport" sheetId="3" r:id="rId1"/>
     <sheet name="option" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
   <si>
     <t>III.  LAPORAN CAPAIAN KOMPETENSI PESERTA DIDIK</t>
   </si>
@@ -223,6 +220,9 @@
   <si>
     <t>Bahasa Asing Lain</t>
   </si>
+  <si>
+    <t>number</t>
+  </si>
 </sst>
 </file>
 
@@ -881,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1013,6 +1013,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,7 +1117,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,7 +1152,7 @@
         <xdr:cNvPr id="2" name="Shape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F88BA71-B3B1-4D30-8E52-F7C2F231F520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122820DE-A51B-4B43-B902-5CBA14783AC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1167,7 +1171,7 @@
           <xdr:cNvPr id="3" name="Shape 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613CC4AB-A286-44EF-A938-A0E7BDB565E8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8428F8-22FB-428C-8A26-E6EC085D135A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1197,45 +1201,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="MASTER"/>
-      <sheetName val="Buku Induk Siswa"/>
-      <sheetName val="Laporan Penilaian Hasil Belajar"/>
-      <sheetName val="X MIPA 1"/>
-      <sheetName val="X MIPA 2"/>
-      <sheetName val="X MIPA 3"/>
-      <sheetName val="X MIPA 4"/>
-      <sheetName val="X MIPA 5"/>
-      <sheetName val="X MIPA 6"/>
-      <sheetName val="X MIPA 7"/>
-      <sheetName val="X IPS 1"/>
-      <sheetName val="X IPS 2"/>
-      <sheetName val="X IPS 3"/>
-      <sheetName val="Semua Kelas"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1534,62 +1499,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649BDABF-7A5B-4E89-AA5D-A04370C03972}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68946B94-4F08-4F4F-AA2D-A82346957113}">
   <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="3" width="2.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="1.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="34" width="4.5546875" customWidth="1"/>
-    <col min="35" max="40" width="8" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="45" customWidth="1"/>
+    <col min="2" max="3" width="2.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="1.33203125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="8" style="45" customWidth="1"/>
+    <col min="8" max="34" width="4.5546875" style="45" customWidth="1"/>
+    <col min="35" max="40" width="8" style="45" customWidth="1"/>
+    <col min="41" max="16384" width="14.44140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
@@ -1644,27 +1610,24 @@
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2" t="e">
-        <f>[1]MASTER!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="46"/>
+      <c r="P3" s="48"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="V3" s="47" t="s">
+      <c r="V3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="46"/>
+      <c r="W3" s="48"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
@@ -1728,7 +1691,7 @@
       <c r="AN4" s="1"/>
     </row>
     <row r="5" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5"/>
@@ -1739,35 +1702,35 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="52"/>
-      <c r="AC5" s="52"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="54" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="56"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="55"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="57"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -1776,7 +1739,7 @@
       <c r="AN5" s="1"/>
     </row>
     <row r="6" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1"/>
       <c r="D6" s="9" t="s">
@@ -1785,35 +1748,35 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="58"/>
-      <c r="AF6" s="60" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="59"/>
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="61"/>
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="63"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -1822,7 +1785,7 @@
       <c r="AN6" s="1"/>
     </row>
     <row r="7" spans="1:40" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1831,51 +1794,51 @@
         <v>10</v>
       </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="62">
+      <c r="H7" s="64">
         <v>1</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="63">
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="65">
         <v>2</v>
       </c>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="63">
+      <c r="L7" s="59"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="65">
         <v>1</v>
       </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="63">
+      <c r="O7" s="59"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="65">
         <v>2</v>
       </c>
-      <c r="R7" s="57"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="63">
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="65">
         <v>1</v>
       </c>
-      <c r="U7" s="57"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="63">
+      <c r="U7" s="59"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="65">
         <v>2</v>
       </c>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="63">
+      <c r="X7" s="59"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="65">
         <v>1</v>
       </c>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="63">
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="60"/>
+      <c r="AC7" s="65">
         <v>2</v>
       </c>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="58"/>
-      <c r="AF7" s="59" t="s">
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="61"/>
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="63"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -1884,7 +1847,7 @@
       <c r="AN7" s="1"/>
     </row>
     <row r="8" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="8"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1893,85 +1856,85 @@
       <c r="G8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="64" t="s">
+      <c r="M8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="64" t="s">
+      <c r="N8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="64" t="s">
+      <c r="O8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="64" t="s">
+      <c r="R8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="S8" s="64" t="s">
+      <c r="S8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="64" t="s">
+      <c r="T8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="64" t="s">
+      <c r="U8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="64" t="s">
+      <c r="V8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="64" t="s">
+      <c r="W8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="64" t="s">
+      <c r="X8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="64" t="s">
+      <c r="Y8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Z8" s="64" t="s">
+      <c r="Z8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AA8" s="64" t="s">
+      <c r="AA8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="64" t="s">
+      <c r="AB8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" s="64" t="s">
+      <c r="AC8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="64" t="s">
+      <c r="AD8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AE8" s="64" t="s">
+      <c r="AE8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="AF8" s="64" t="s">
+      <c r="AF8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AG8" s="64" t="s">
+      <c r="AG8" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AH8" s="83" t="s">
+      <c r="AH8" s="85" t="s">
         <v>15</v>
       </c>
       <c r="AI8" s="1"/>
@@ -1982,40 +1945,40 @@
       <c r="AN8" s="1"/>
     </row>
     <row r="9" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="84"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="86"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -2024,7 +1987,7 @@
       <c r="AN9" s="1"/>
     </row>
     <row r="10" spans="1:40" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
@@ -2033,33 +1996,33 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="85"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="87"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -2071,59 +2034,59 @@
       <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="67">
+      <c r="B11" s="69">
         <v>2</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="67">
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="69">
         <v>3</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="67">
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="69">
         <v>4</v>
       </c>
-      <c r="L11" s="68"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="67">
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="69">
         <v>5</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="67">
+      <c r="O11" s="70"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="69">
         <v>6</v>
       </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="67">
+      <c r="R11" s="70"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="69">
         <v>7</v>
       </c>
-      <c r="U11" s="68"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="67">
+      <c r="U11" s="70"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="69">
         <v>8</v>
       </c>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="67">
+      <c r="X11" s="70"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="69">
         <v>9</v>
       </c>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="67">
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="69">
         <v>10</v>
       </c>
-      <c r="AD11" s="68"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="67">
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="69">
         <v>11</v>
       </c>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="72"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -2135,10 +2098,10 @@
       <c r="A12" s="15">
         <v>1</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="72"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="16" t="s">
         <v>18</v>
       </c>
@@ -2184,8 +2147,8 @@
         <f>A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="21" t="s">
         <v>19</v>
       </c>
@@ -2231,8 +2194,8 @@
         <f>A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="21" t="s">
         <v>20</v>
       </c>
@@ -2278,8 +2241,8 @@
         <f>A14+1</f>
         <v>4</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="21" t="s">
         <v>21</v>
       </c>
@@ -2325,8 +2288,8 @@
         <f>A15+1</f>
         <v>5</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="21" t="s">
         <v>22</v>
       </c>
@@ -2372,8 +2335,8 @@
         <f>A16+1</f>
         <v>6</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="26" t="s">
         <v>23</v>
       </c>
@@ -2418,10 +2381,10 @@
       <c r="A18" s="30">
         <v>1</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="79"/>
       <c r="D18" s="31" t="s">
         <v>25</v>
       </c>
@@ -2467,8 +2430,8 @@
         <f>A18+1</f>
         <v>2</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="77"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="21" t="s">
         <v>26</v>
       </c>
@@ -2514,8 +2477,8 @@
         <f>A19+1</f>
         <v>3</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="26" t="s">
         <v>27</v>
       </c>
@@ -2560,10 +2523,10 @@
       <c r="A21" s="30">
         <v>1</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -2611,8 +2574,8 @@
         <f t="shared" ref="A22:A40" si="0">A21+1</f>
         <v>2</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="21" t="s">
         <v>30</v>
       </c>
@@ -2658,8 +2621,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="21" t="s">
         <v>31</v>
       </c>
@@ -2705,8 +2668,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="21" t="s">
         <v>32</v>
       </c>
@@ -2752,8 +2715,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="21" t="s">
         <v>33</v>
       </c>
@@ -2799,8 +2762,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="21" t="s">
         <v>34</v>
       </c>
@@ -2846,8 +2809,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="65"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="21" t="s">
         <v>35</v>
       </c>
@@ -2893,8 +2856,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="66"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="35" t="s">
         <v>36</v>
       </c>
@@ -2940,8 +2903,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="82" t="s">
+      <c r="B29" s="80"/>
+      <c r="C29" s="84" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="31" t="s">
@@ -2989,8 +2952,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="21" t="s">
         <v>30</v>
       </c>
@@ -3036,8 +2999,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="21" t="s">
         <v>31</v>
       </c>
@@ -3083,8 +3046,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="21" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3093,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="21" t="s">
         <v>33</v>
       </c>
@@ -3177,8 +3140,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="65"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="21" t="s">
         <v>34</v>
       </c>
@@ -3224,8 +3187,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="21" t="s">
         <v>35</v>
       </c>
@@ -3271,8 +3234,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="65"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="21" t="s">
         <v>36</v>
       </c>
@@ -3318,8 +3281,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="65"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="21" t="s">
         <v>38</v>
       </c>
@@ -3365,8 +3328,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="65"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="21" t="s">
         <v>39</v>
       </c>
@@ -3412,8 +3375,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="65"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="21" t="s">
         <v>52</v>
       </c>
@@ -3459,8 +3422,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="66"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="26" t="s">
         <v>40</v>
       </c>
@@ -3502,15 +3465,15 @@
       <c r="AN40" s="1"/>
     </row>
     <row r="41" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="80"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="82"/>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
@@ -3546,62 +3509,62 @@
       <c r="AN41" s="1"/>
     </row>
     <row r="42" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="38"/>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54" t="s">
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="54" t="s">
+      <c r="I42" s="54"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="L42" s="52"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="54" t="s">
+      <c r="L42" s="54"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="O42" s="52"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="54" t="s">
+      <c r="O42" s="54"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="R42" s="52"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="54" t="s">
+      <c r="R42" s="54"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="U42" s="52"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="54" t="s">
+      <c r="U42" s="54"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="54" t="s">
+      <c r="X42" s="54"/>
+      <c r="Y42" s="55"/>
+      <c r="Z42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AA42" s="52"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="54" t="s">
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="55"/>
+      <c r="AC42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AD42" s="52"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="54" t="s">
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="55"/>
+      <c r="AF42" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AG42" s="52"/>
-      <c r="AH42" s="55"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="57"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
       <c r="AK42" s="1"/>
@@ -3610,60 +3573,60 @@
       <c r="AN42" s="1"/>
     </row>
     <row r="43" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="49"/>
-      <c r="B43" s="77"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="39"/>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="59" t="s">
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="59" t="s">
+      <c r="I43" s="59"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="L43" s="57"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="59" t="s">
+      <c r="L43" s="59"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="O43" s="57"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="59" t="s">
+      <c r="O43" s="59"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="R43" s="57"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="59" t="s">
+      <c r="R43" s="59"/>
+      <c r="S43" s="60"/>
+      <c r="T43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="U43" s="57"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="59" t="s">
+      <c r="U43" s="59"/>
+      <c r="V43" s="60"/>
+      <c r="W43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="59" t="s">
+      <c r="X43" s="59"/>
+      <c r="Y43" s="60"/>
+      <c r="Z43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AA43" s="57"/>
-      <c r="AB43" s="58"/>
-      <c r="AC43" s="59" t="s">
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="60"/>
+      <c r="AC43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AD43" s="57"/>
-      <c r="AE43" s="58"/>
-      <c r="AF43" s="59" t="s">
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="60"/>
+      <c r="AF43" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="AG43" s="57"/>
-      <c r="AH43" s="61"/>
+      <c r="AG43" s="59"/>
+      <c r="AH43" s="63"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
       <c r="AK43" s="1"/>
@@ -3672,60 +3635,60 @@
       <c r="AN43" s="1"/>
     </row>
     <row r="44" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="50"/>
-      <c r="B44" s="80"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="90" t="s">
+      <c r="D44" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="90" t="s">
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="91"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="90" t="s">
+      <c r="I44" s="93"/>
+      <c r="J44" s="94"/>
+      <c r="K44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="91"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="90" t="s">
+      <c r="L44" s="93"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="91"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="90" t="s">
+      <c r="O44" s="93"/>
+      <c r="P44" s="94"/>
+      <c r="Q44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="R44" s="91"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="90" t="s">
+      <c r="R44" s="93"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="U44" s="91"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="90" t="s">
+      <c r="U44" s="93"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="X44" s="91"/>
-      <c r="Y44" s="92"/>
-      <c r="Z44" s="90" t="s">
+      <c r="X44" s="93"/>
+      <c r="Y44" s="94"/>
+      <c r="Z44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AA44" s="91"/>
-      <c r="AB44" s="92"/>
-      <c r="AC44" s="90" t="s">
+      <c r="AA44" s="93"/>
+      <c r="AB44" s="94"/>
+      <c r="AC44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AD44" s="91"/>
-      <c r="AE44" s="92"/>
-      <c r="AF44" s="90" t="s">
+      <c r="AD44" s="93"/>
+      <c r="AE44" s="94"/>
+      <c r="AF44" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AG44" s="91"/>
-      <c r="AH44" s="93"/>
+      <c r="AG44" s="93"/>
+      <c r="AH44" s="95"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
       <c r="AK44" s="1"/>
@@ -3734,44 +3697,44 @@
       <c r="AN44" s="1"/>
     </row>
     <row r="45" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
-      <c r="H45" s="94" t="s">
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="7"/>
-      <c r="N45" s="94" t="s">
+      <c r="N45" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="94" t="s">
+      <c r="T45" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="7"/>
-      <c r="Z45" s="94" t="s">
+      <c r="Z45" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="AA45" s="68"/>
-      <c r="AB45" s="68"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="70"/>
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="7"/>
@@ -3786,13 +3749,13 @@
       <c r="AN45" s="1"/>
     </row>
     <row r="46" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="8"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -3836,42 +3799,42 @@
       <c r="AN46" s="1"/>
     </row>
     <row r="47" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="50"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="89" t="s">
+      <c r="A47" s="52"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="13"/>
-      <c r="N47" s="89" t="s">
+      <c r="N47" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="89"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="89" t="s">
+      <c r="T47" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="U47" s="87"/>
-      <c r="V47" s="87"/>
+      <c r="U47" s="89"/>
+      <c r="V47" s="89"/>
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="13"/>
-      <c r="Z47" s="89" t="s">
+      <c r="Z47" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="AA47" s="87"/>
-      <c r="AB47" s="87"/>
+      <c r="AA47" s="89"/>
+      <c r="AB47" s="89"/>
       <c r="AC47" s="12"/>
       <c r="AD47" s="12"/>
       <c r="AE47" s="13"/>
@@ -7959,862 +7922,862 @@
       <c r="AM144" s="1"/>
       <c r="AN144" s="1"/>
     </row>
-    <row r="145" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" s="45" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="106">
     <mergeCell ref="N47:P47"/>
@@ -8931,142 +8894,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB672205-8976-4FB9-8173-17311A007001}">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="97" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="97">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="97">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="97">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="97">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="97">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="97">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="B21" s="97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="97">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="97">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="97">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="97">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="97">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="97">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="44" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="B31" s="97">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="B32" s="97">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="B33" s="97">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="44" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="44" t="s">
+      <c r="B34" s="97">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+      <c r="B35" s="97">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
+      <c r="B36" s="97">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="97">
         <v>40</v>
       </c>
     </row>
